--- a/data/trans_orig/DCD-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>77139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60876</v>
+        <v>59489</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94546</v>
+        <v>94702</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07389240689716718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05831369848114574</v>
+        <v>0.05698493124929598</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09056661787428681</v>
+        <v>0.09071626634415049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>196</v>
@@ -764,19 +764,19 @@
         <v>211391</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>185799</v>
+        <v>183563</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>238473</v>
+        <v>236453</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.188753700013349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1659024945915678</v>
+        <v>0.1639060829071512</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2129363386455498</v>
+        <v>0.2111323319972274</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>268</v>
@@ -785,19 +785,19 @@
         <v>288529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>253995</v>
+        <v>258051</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>319330</v>
+        <v>322600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1333399828595958</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1173803055869312</v>
+        <v>0.1192545827884035</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1475742562571926</v>
+        <v>0.1490850646569142</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>966796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>949389</v>
+        <v>949233</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>983059</v>
+        <v>984446</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9261075931028329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9094333821257131</v>
+        <v>0.9092837336558501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9416863015188542</v>
+        <v>0.9430150687507045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>835</v>
@@ -835,19 +835,19 @@
         <v>908537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>881455</v>
+        <v>883475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>934129</v>
+        <v>936365</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.811246299986651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7870636613544501</v>
+        <v>0.7888676680027725</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8340975054084322</v>
+        <v>0.8360939170928487</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1741</v>
@@ -856,19 +856,19 @@
         <v>1875334</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1844533</v>
+        <v>1841263</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1909868</v>
+        <v>1905812</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8666600171404042</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8524257437428078</v>
+        <v>0.8509149353430858</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8826196944130689</v>
+        <v>0.8807454172115965</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>65163</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50855</v>
+        <v>50168</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83722</v>
+        <v>82700</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06669163313833666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05204882249563957</v>
+        <v>0.05134554503871123</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08568676473864417</v>
+        <v>0.08464097786066666</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>179</v>
@@ -981,19 +981,19 @@
         <v>190739</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165078</v>
+        <v>166994</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>218768</v>
+        <v>219282</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1743080258625496</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1508574897081858</v>
+        <v>0.152608464316751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1999224718439573</v>
+        <v>0.2003924557881513</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>240</v>
@@ -1002,19 +1002,19 @@
         <v>255901</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>225063</v>
+        <v>226910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>284782</v>
+        <v>289513</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1235441216571634</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.108656130488868</v>
+        <v>0.1095478674070758</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.137487350237349</v>
+        <v>0.1397710224529033</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>911910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>893351</v>
+        <v>894373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>926218</v>
+        <v>926905</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9333083668616633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9143132352613553</v>
+        <v>0.9153590221393333</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9479511775043604</v>
+        <v>0.9486544549612888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>841</v>
@@ -1052,19 +1052,19 @@
         <v>903523</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>875494</v>
+        <v>874980</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>929184</v>
+        <v>927268</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8256919741374504</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8000775281560426</v>
+        <v>0.7996075442118487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8491425102918142</v>
+        <v>0.8473915356832491</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1704</v>
@@ -1073,19 +1073,19 @@
         <v>1815434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1786553</v>
+        <v>1781822</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1846272</v>
+        <v>1844425</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8764558783428367</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8625126497626507</v>
+        <v>0.8602289775470966</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.891343869511132</v>
+        <v>0.8904521325929241</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>56429</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43096</v>
+        <v>42044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72388</v>
+        <v>73348</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06375356745357337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04868919199212139</v>
+        <v>0.04750133042243369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08178425914600886</v>
+        <v>0.08286794175896972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -1198,19 +1198,19 @@
         <v>109393</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91527</v>
+        <v>89867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130331</v>
+        <v>129830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1249069945927612</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1045076091755086</v>
+        <v>0.1026122575979913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1488144174582921</v>
+        <v>0.1482420083224144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -1219,19 +1219,19 @@
         <v>165822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141060</v>
+        <v>141003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189982</v>
+        <v>194273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09416845888541694</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08010598581957287</v>
+        <v>0.08007416243871435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.107888270535612</v>
+        <v>0.1103253740444195</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>828686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>812727</v>
+        <v>811767</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>842019</v>
+        <v>843071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9362464325464266</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9182157408539912</v>
+        <v>0.9171320582410302</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9513108080078786</v>
+        <v>0.9524986695775663</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>720</v>
@@ -1269,19 +1269,19 @@
         <v>766403</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>745465</v>
+        <v>745966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>784269</v>
+        <v>785929</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8750930054072388</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8511855825417078</v>
+        <v>0.8517579916775855</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8954923908244914</v>
+        <v>0.8973877424020087</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1499</v>
@@ -1290,19 +1290,19 @@
         <v>1595089</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1570929</v>
+        <v>1566638</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1619851</v>
+        <v>1619908</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9058315411145831</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8921117294643879</v>
+        <v>0.8896746259555804</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9198940141804272</v>
+        <v>0.9199258375612854</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>28441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19814</v>
+        <v>19357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41910</v>
+        <v>41413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05653993795144588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03939035646526925</v>
+        <v>0.03848193990163837</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08331552446841244</v>
+        <v>0.08232914313258662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -1415,19 +1415,19 @@
         <v>61340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46561</v>
+        <v>46567</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77532</v>
+        <v>80089</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1354864107768815</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1028438744655224</v>
+        <v>0.1028568492196091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1712518252990391</v>
+        <v>0.1768997891541378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1436,19 +1436,19 @@
         <v>89780</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72607</v>
+        <v>71616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110923</v>
+        <v>110459</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09393629590063748</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07596785293439871</v>
+        <v>0.07493159939095398</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.116057099176783</v>
+        <v>0.1155724241397691</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>474582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>461113</v>
+        <v>461610</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483209</v>
+        <v>483666</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9434600620485541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9166844755315875</v>
+        <v>0.9176708568674127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9606096435347307</v>
+        <v>0.9615180600983616</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>359</v>
@@ -1486,19 +1486,19 @@
         <v>391396</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>375204</v>
+        <v>372647</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>406175</v>
+        <v>406169</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8645135892231185</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.828748174700961</v>
+        <v>0.8231002108458623</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8971561255344777</v>
+        <v>0.897143150780391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>793</v>
@@ -1507,19 +1507,19 @@
         <v>865978</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>844835</v>
+        <v>845299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>883151</v>
+        <v>884142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9060637040993625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.883942900823217</v>
+        <v>0.8844275758602309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9240321470656012</v>
+        <v>0.925068400609046</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>227172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>199472</v>
+        <v>198234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>260384</v>
+        <v>259660</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06663592401211672</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05851096768971339</v>
+        <v>0.05814779360545889</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07637810950660937</v>
+        <v>0.07616559947696327</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>529</v>
@@ -1632,19 +1632,19 @@
         <v>572862</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>526973</v>
+        <v>530999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>615002</v>
+        <v>615576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1617010470424171</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1487479757014616</v>
+        <v>0.1498844133869306</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1735959080769409</v>
+        <v>0.1737577961376854</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>740</v>
@@ -1653,19 +1653,19 @@
         <v>800033</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>745512</v>
+        <v>746017</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>860579</v>
+        <v>855642</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1150817991972232</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1072391769020725</v>
+        <v>0.1073117524951056</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1237910237650878</v>
+        <v>0.1230808316311323</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3181973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3148761</v>
+        <v>3149485</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3209673</v>
+        <v>3210911</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9333640759878833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9236218904933907</v>
+        <v>0.9238344005230368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9414890323102866</v>
+        <v>0.9418522063945411</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2755</v>
@@ -1703,19 +1703,19 @@
         <v>2969860</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2927720</v>
+        <v>2927146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3015749</v>
+        <v>3011723</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8382989529575829</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.826404091923059</v>
+        <v>0.8262422038623146</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8512520242985384</v>
+        <v>0.8501155866130693</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5737</v>
@@ -1724,19 +1724,19 @@
         <v>6151834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6091288</v>
+        <v>6096225</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6206355</v>
+        <v>6205850</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8849182008027768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8762089762349121</v>
+        <v>0.8769191683688679</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8927608230979274</v>
+        <v>0.8926882475048949</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>107156</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87942</v>
+        <v>88942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125918</v>
+        <v>129484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09499696467470481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0779626300251159</v>
+        <v>0.07884991871004177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1116298117482469</v>
+        <v>0.1147909427522572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>188</v>
@@ -2089,19 +2089,19 @@
         <v>206526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>180014</v>
+        <v>179430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>233902</v>
+        <v>234554</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1639670294258947</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1429182933996442</v>
+        <v>0.1424544881095951</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1857011494872532</v>
+        <v>0.1862188730914995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>289</v>
@@ -2110,19 +2110,19 @@
         <v>313683</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>283483</v>
+        <v>279636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>354215</v>
+        <v>349828</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1313822536840963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.118733313282044</v>
+        <v>0.1171223354726469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1483586928554499</v>
+        <v>0.1465211658471927</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1020841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1002079</v>
+        <v>998513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1040055</v>
+        <v>1039055</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9050030353252951</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8883701882517532</v>
+        <v>0.8852090572477429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9220373699748841</v>
+        <v>0.9211500812899582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1000</v>
@@ -2160,19 +2160,19 @@
         <v>1053035</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1025659</v>
+        <v>1025007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1079547</v>
+        <v>1080131</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8360329705741053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8142988505127469</v>
+        <v>0.8137811269085005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8570817066003558</v>
+        <v>0.8575455118904047</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1965</v>
@@ -2181,19 +2181,19 @@
         <v>2073875</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2033343</v>
+        <v>2037730</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2104075</v>
+        <v>2107922</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8686177463159037</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8516413071445501</v>
+        <v>0.8534788341528073</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.881266686717956</v>
+        <v>0.8828776645273531</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>57123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43936</v>
+        <v>44434</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74423</v>
+        <v>73356</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06285321435773177</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.048344086069266</v>
+        <v>0.04889123548548911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08188914986680555</v>
+        <v>0.08071561195855388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>119</v>
@@ -2306,19 +2306,19 @@
         <v>131886</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110928</v>
+        <v>110398</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156066</v>
+        <v>154571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1310373348152589</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1102142459970139</v>
+        <v>0.1096875041052276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1550616780997187</v>
+        <v>0.1535763067525787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -2327,19 +2327,19 @@
         <v>189008</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162276</v>
+        <v>163359</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>219255</v>
+        <v>216190</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09868343947002056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08472622553609876</v>
+        <v>0.08529144985092374</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1144753980869798</v>
+        <v>0.1128750181406051</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>851702</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>834402</v>
+        <v>835469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>864889</v>
+        <v>864391</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9371467856422683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9181108501331945</v>
+        <v>0.9192843880414461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.951655913930734</v>
+        <v>0.9511087645145109</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>832</v>
@@ -2377,19 +2377,19 @@
         <v>874589</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>850409</v>
+        <v>851904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>895547</v>
+        <v>896077</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8689626651847412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8449383219002814</v>
+        <v>0.8464236932474213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8897857540029862</v>
+        <v>0.8903124958947721</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1656</v>
@@ -2398,19 +2398,19 @@
         <v>1726292</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1696045</v>
+        <v>1699110</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1753024</v>
+        <v>1751941</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9013165605299794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.88552460191302</v>
+        <v>0.8871249818593948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9152737744639007</v>
+        <v>0.914708550149076</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>32442</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22440</v>
+        <v>21776</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45256</v>
+        <v>45543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03938313329299551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02724049785177985</v>
+        <v>0.02643499192164095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05493877279442513</v>
+        <v>0.05528663903723662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -2523,19 +2523,19 @@
         <v>70034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53932</v>
+        <v>55029</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87507</v>
+        <v>87865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09082856001967596</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06994546833181554</v>
+        <v>0.07136872569013296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1134895108423391</v>
+        <v>0.1139531308260583</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -2544,19 +2544,19 @@
         <v>102476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84177</v>
+        <v>84891</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>125310</v>
+        <v>124401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06425584223399959</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05278150025783696</v>
+        <v>0.05322942922650466</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07857302283470766</v>
+        <v>0.07800300222545437</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>791317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>778503</v>
+        <v>778216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>801319</v>
+        <v>801983</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9606168667070045</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9450612272055745</v>
+        <v>0.9447133609627635</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9727595021482202</v>
+        <v>0.9735650080783591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>665</v>
@@ -2594,19 +2594,19 @@
         <v>701025</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>683552</v>
+        <v>683194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717127</v>
+        <v>716030</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.909171439980324</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.886510489157661</v>
+        <v>0.8860468691739416</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9300545316681843</v>
+        <v>0.928631274309867</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1421</v>
@@ -2615,19 +2615,19 @@
         <v>1492342</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1469508</v>
+        <v>1470417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1510641</v>
+        <v>1509927</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9357441577660004</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9214269771652922</v>
+        <v>0.9219969977745457</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9472184997421624</v>
+        <v>0.9467705707734954</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>30169</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20255</v>
+        <v>19717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43397</v>
+        <v>42038</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0595407645484452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0399738769252277</v>
+        <v>0.038911805041655</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0856464730695226</v>
+        <v>0.08296507378037796</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -2740,19 +2740,19 @@
         <v>48131</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35526</v>
+        <v>35329</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64352</v>
+        <v>63917</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09828780094618761</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07254682794931766</v>
+        <v>0.07214352720268143</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1314115931285174</v>
+        <v>0.1305230924725319</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -2761,19 +2761,19 @@
         <v>78301</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61575</v>
+        <v>61266</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99853</v>
+        <v>95407</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07858367735744437</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0617976240351344</v>
+        <v>0.06148786792775461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1002137116609347</v>
+        <v>0.09575201494831535</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>476532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463304</v>
+        <v>464663</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>486446</v>
+        <v>486984</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9404592354515549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9143535269304773</v>
+        <v>0.917034926219622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9600261230747723</v>
+        <v>0.9610881949583447</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>414</v>
@@ -2811,19 +2811,19 @@
         <v>441567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>425346</v>
+        <v>425781</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>454172</v>
+        <v>454369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9017121990538124</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8685884068714826</v>
+        <v>0.8694769075274682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9274531720506825</v>
+        <v>0.9278564727973185</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -2832,19 +2832,19 @@
         <v>918097</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>896545</v>
+        <v>900991</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>934823</v>
+        <v>935132</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9214163226425556</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8997862883390648</v>
+        <v>0.9042479850516846</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9382023759648654</v>
+        <v>0.9385121320722454</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>226890</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>198746</v>
+        <v>198070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>255643</v>
+        <v>257348</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06738088348767224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05902278949612452</v>
+        <v>0.05882189929944143</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07591963314662269</v>
+        <v>0.07642598897161294</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>411</v>
@@ -2957,19 +2957,19 @@
         <v>456578</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>415956</v>
+        <v>415431</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>497960</v>
+        <v>500686</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1294597698269284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1179416240448302</v>
+        <v>0.1177929409618172</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1411934911456926</v>
+        <v>0.1419665008534189</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>627</v>
@@ -2978,19 +2978,19 @@
         <v>683468</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>631840</v>
+        <v>632176</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>739379</v>
+        <v>736240</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09913849481126848</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09164969746527728</v>
+        <v>0.09169843120174687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1072484112527664</v>
+        <v>0.1067930898422178</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3140392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3111639</v>
+        <v>3109934</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3168536</v>
+        <v>3169212</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9326191165123278</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9240803668533769</v>
+        <v>0.923574011028387</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9409772105038751</v>
+        <v>0.9411781007005584</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2911</v>
@@ -3028,19 +3028,19 @@
         <v>3070214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3028832</v>
+        <v>3026106</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3110836</v>
+        <v>3111361</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8705402301730716</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8588065088543074</v>
+        <v>0.8580334991465811</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8820583759551699</v>
+        <v>0.8822070590381828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5900</v>
@@ -3049,19 +3049,19 @@
         <v>6210607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6154696</v>
+        <v>6157835</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6262235</v>
+        <v>6261899</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9008615051887315</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8927515887472329</v>
+        <v>0.8932069101577822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9083503025347222</v>
+        <v>0.9083015687982532</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>120817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101281</v>
+        <v>102210</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139997</v>
+        <v>142555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2422458157061962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.203074664755497</v>
+        <v>0.2049364492673688</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2807018241710502</v>
+        <v>0.2858315451455722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>368</v>
@@ -3414,19 +3414,19 @@
         <v>235738</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>216527</v>
+        <v>215591</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>258931</v>
+        <v>258246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3780399967353552</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3472313350093439</v>
+        <v>0.3457306671378696</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4152327893400059</v>
+        <v>0.4141338211079282</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>502</v>
@@ -3435,19 +3435,19 @@
         <v>356556</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>327399</v>
+        <v>331096</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>385332</v>
+        <v>387691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3176954213680626</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2917162427197305</v>
+        <v>0.2950104251639586</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3433347969181423</v>
+        <v>0.3454373715930267</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>377922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>358742</v>
+        <v>356184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>397458</v>
+        <v>396529</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7577541842938039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7192981758289496</v>
+        <v>0.7141684548544278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7969253352445029</v>
+        <v>0.795063550732631</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>493</v>
@@ -3485,19 +3485,19 @@
         <v>387842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>364649</v>
+        <v>365334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>407053</v>
+        <v>407989</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6219600032646447</v>
+        <v>0.6219600032646448</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.584767210659994</v>
+        <v>0.5858661788920717</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6527686649906562</v>
+        <v>0.6542693328621303</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>814</v>
@@ -3506,19 +3506,19 @@
         <v>765764</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736988</v>
+        <v>734629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>794921</v>
+        <v>791224</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6823045786319374</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6566652030818575</v>
+        <v>0.6545626284069733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7082837572802692</v>
+        <v>0.7049895748360414</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>133269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112500</v>
+        <v>112910</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153659</v>
+        <v>153517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.138802557236299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1171706616336515</v>
+        <v>0.1175983069596205</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1600389240684223</v>
+        <v>0.1598911773885137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>504</v>
@@ -3631,19 +3631,19 @@
         <v>312374</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>287733</v>
+        <v>286691</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>338090</v>
+        <v>339112</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2799430494277557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2578605235761858</v>
+        <v>0.2569262736539891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3029886611898371</v>
+        <v>0.3039050814797292</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>666</v>
@@ -3652,19 +3652,19 @@
         <v>445644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>413669</v>
+        <v>411952</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>481065</v>
+        <v>481247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2146660369780386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1992637670204655</v>
+        <v>0.1984367891841223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2317284753055484</v>
+        <v>0.2318162175980646</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>826868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>806478</v>
+        <v>806620</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>847637</v>
+        <v>847227</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8611974427637012</v>
+        <v>0.8611974427637011</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8399610759315778</v>
+        <v>0.8401088226114863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8828293383663487</v>
+        <v>0.8824016930403796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1103</v>
@@ -3702,19 +3702,19 @@
         <v>803475</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>777759</v>
+        <v>776737</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>828116</v>
+        <v>829158</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7200569505722442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6970113388101631</v>
+        <v>0.6960949185202708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7421394764238147</v>
+        <v>0.7430737263460109</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1851</v>
@@ -3723,19 +3723,19 @@
         <v>1630342</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1594921</v>
+        <v>1594739</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1662317</v>
+        <v>1664034</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7853339630219613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7682715246944507</v>
+        <v>0.7681837824019354</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8007362329795343</v>
+        <v>0.8015632108158776</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>90432</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75253</v>
+        <v>74986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109431</v>
+        <v>110295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08641551682324142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07191040353896418</v>
+        <v>0.07165590356206676</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1045702651109544</v>
+        <v>0.1053967260985029</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>352</v>
@@ -3848,19 +3848,19 @@
         <v>223595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199259</v>
+        <v>202655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>245333</v>
+        <v>248848</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2134273569042016</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1901973108197086</v>
+        <v>0.1934391512308686</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2341762304784333</v>
+        <v>0.2375311694702329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>460</v>
@@ -3869,19 +3869,19 @@
         <v>314027</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>283556</v>
+        <v>284774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344971</v>
+        <v>345214</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1499566862935009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.135405727553006</v>
+        <v>0.1359874460253979</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1647332112638659</v>
+        <v>0.1648491813105395</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>956047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>937048</v>
+        <v>936184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>971226</v>
+        <v>971493</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9135844831767586</v>
+        <v>0.9135844831767584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8954297348890454</v>
+        <v>0.8946032739014972</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9280895964610356</v>
+        <v>0.9283440964379334</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1164</v>
@@ -3919,19 +3919,19 @@
         <v>824047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>802309</v>
+        <v>798794</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>848383</v>
+        <v>844987</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7865726430957984</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7658237695215668</v>
+        <v>0.762468830529767</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8098026891802912</v>
+        <v>0.8065608487691316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2085</v>
@@ -3940,19 +3940,19 @@
         <v>1780094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1749150</v>
+        <v>1748907</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1810565</v>
+        <v>1809347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8500433137064991</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8352667887361339</v>
+        <v>0.8351508186894604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8645942724469938</v>
+        <v>0.8640125539746015</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>105927</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86395</v>
+        <v>88605</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125898</v>
+        <v>127339</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1085393266909526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0885254466420802</v>
+        <v>0.0907899672853867</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1290036727722093</v>
+        <v>0.1304793330424846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>306</v>
@@ -4065,19 +4065,19 @@
         <v>214897</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>190734</v>
+        <v>193322</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>238872</v>
+        <v>240172</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2360609020373159</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.209518086984889</v>
+        <v>0.2123616250241947</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2623975687606044</v>
+        <v>0.2638257557721668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>423</v>
@@ -4086,19 +4086,19 @@
         <v>320824</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>291522</v>
+        <v>289205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>356680</v>
+        <v>351074</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1700832042048605</v>
+        <v>0.1700832042048604</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1545490877086774</v>
+        <v>0.1533206828872485</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1890925612115514</v>
+        <v>0.1861201677830628</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>870002</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>850031</v>
+        <v>848590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>889534</v>
+        <v>887324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8914606733090474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8709963272277907</v>
+        <v>0.8695206669575154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9114745533579199</v>
+        <v>0.9092100327146133</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1018</v>
@@ -4136,19 +4136,19 @@
         <v>695448</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>671473</v>
+        <v>670173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>719611</v>
+        <v>717023</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7639390979626842</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7376024312393955</v>
+        <v>0.7361742442278334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7904819130151112</v>
+        <v>0.7876383749758052</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1848</v>
@@ -4157,19 +4157,19 @@
         <v>1565450</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1529594</v>
+        <v>1535200</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1594752</v>
+        <v>1597069</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8299167957951396</v>
+        <v>0.8299167957951394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8109074387884486</v>
+        <v>0.8138798322169373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8454509122913227</v>
+        <v>0.8466793171127514</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>450446</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>416869</v>
+        <v>411098</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>491743</v>
+        <v>489293</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1293906590649221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1197457684403254</v>
+        <v>0.1180879576784704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1412533530479161</v>
+        <v>0.1405495099205874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1530</v>
@@ -4282,19 +4282,19 @@
         <v>986605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>943437</v>
+        <v>936223</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1032438</v>
+        <v>1029943</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.266836281833648</v>
+        <v>0.2668362818336479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.255161043173498</v>
+        <v>0.2532101086534828</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2792322149985443</v>
+        <v>0.2785574622069188</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2051</v>
@@ -4303,19 +4303,19 @@
         <v>1437051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1369261</v>
+        <v>1379467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1498988</v>
+        <v>1500564</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2001825329323612</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1907393389707022</v>
+        <v>0.1921610382681844</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.208810468326231</v>
+        <v>0.2090300131388591</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3030838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2989541</v>
+        <v>2991991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3064415</v>
+        <v>3070186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8706093409350778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8587466469520837</v>
+        <v>0.8594504900794125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8802542315596743</v>
+        <v>0.8819120423215295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3778</v>
@@ -4353,19 +4353,19 @@
         <v>2710811</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2664978</v>
+        <v>2667473</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2753979</v>
+        <v>2761193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.733163718166352</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7207677850014557</v>
+        <v>0.7214425377930814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.744838956826502</v>
+        <v>0.7467898913465172</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6598</v>
@@ -4374,19 +4374,19 @@
         <v>5741650</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5679713</v>
+        <v>5678137</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5809440</v>
+        <v>5799234</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7998174670676387</v>
+        <v>0.7998174670676389</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7911895316737688</v>
+        <v>0.790969986861141</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8092606610292976</v>
+        <v>0.8078389617318157</v>
       </c>
     </row>
     <row r="18">
